--- a/alshard/checklist.xlsx
+++ b/alshard/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/alshard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A557B4C-DA43-AB47-9827-DDF7A78D47B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8EDA95B-189A-694F-B85A-8B7DACE6B00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,6 +589,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>

--- a/alshard/checklist.xlsx
+++ b/alshard/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/alshard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8EDA95B-189A-694F-B85A-8B7DACE6B00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED88EC-07DA-D34A-BECF-C8058D3D9A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="202">
   <si>
     <t>year</t>
   </si>
@@ -154,13 +154,499 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>sss01.jpeg</t>
+  </si>
+  <si>
+    <t>sss02.jpeg</t>
+  </si>
+  <si>
+    <t>sss03.jpeg</t>
+  </si>
+  <si>
+    <t>sss04.jpeg</t>
+  </si>
+  <si>
+    <t>sss05.jpeg</t>
+  </si>
+  <si>
+    <t>sss06.jpeg</t>
+  </si>
+  <si>
+    <t>sss07.jpeg</t>
+  </si>
+  <si>
+    <t>sss08.jpeg</t>
+  </si>
+  <si>
+    <t>sss09.jpeg</t>
+  </si>
+  <si>
+    <t>sss10.jpeg</t>
+  </si>
+  <si>
+    <t>sss11.jpeg</t>
+  </si>
+  <si>
+    <t>sss12.jpeg</t>
+  </si>
+  <si>
+    <t>sss13.jpeg</t>
+  </si>
+  <si>
+    <t>sss14.jpeg</t>
+  </si>
+  <si>
+    <t>sss15.jpeg</t>
+  </si>
+  <si>
+    <t>sss16.jpeg</t>
+  </si>
+  <si>
+    <t>sss17.jpeg</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.1</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.2</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.3</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.4</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.5</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.6</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.7</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.8</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.9</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.10</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.11</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.12</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.13</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.14</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.15</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.16</t>
+  </si>
+  <si>
+    <t>アルシャードSSS vol.17</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 1</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 2</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 3</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 4</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 5</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 6</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 7</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 8</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 9</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 10</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 11</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 12</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 13</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 14</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 15</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 16</t>
+  </si>
+  <si>
+    <t>Alshard SSS vol. 17</t>
+  </si>
+  <si>
+    <t>アール・ヴァル・アルダフォルティッシモ</t>
+  </si>
+  <si>
+    <t>Ár Var Alda ff</t>
+  </si>
+  <si>
+    <t>arvaralda.jpg</t>
+  </si>
+  <si>
+    <t>オーバーザレインボー</t>
+  </si>
+  <si>
+    <t>Over the Rainbow</t>
+  </si>
+  <si>
+    <t>over_the_rainbow.jpg</t>
+  </si>
+  <si>
+    <t>wahres_reich.jpg</t>
+  </si>
+  <si>
+    <t>ヴァーレスライヒ</t>
+  </si>
+  <si>
+    <t>Wahres Reich</t>
+  </si>
+  <si>
+    <t>wincaster_fortune_service.jpg</t>
+  </si>
+  <si>
+    <t>ウィンカスター・フォーチュンサービス</t>
+  </si>
+  <si>
+    <t>Wincaster Fortune Service</t>
+  </si>
+  <si>
+    <t>bright_knight_ff.jpg</t>
+  </si>
+  <si>
+    <t>Bright Knight ff</t>
+  </si>
+  <si>
+    <t>ブライト・ナイト フォルティッシモ</t>
+  </si>
+  <si>
+    <t>midgard.jpg</t>
+  </si>
+  <si>
+    <t>ミッドガルド</t>
+  </si>
+  <si>
+    <t>Midgard</t>
+  </si>
+  <si>
+    <t>アインヘリアル</t>
+  </si>
+  <si>
+    <t>Einherier</t>
+  </si>
+  <si>
+    <t>einherier.jpg</t>
+  </si>
+  <si>
+    <t>jormungandr.jpg</t>
+  </si>
+  <si>
+    <t>Jörmungandr</t>
+  </si>
+  <si>
+    <t>ヨルムンガルド</t>
+  </si>
+  <si>
+    <t>アラウンド・ザ・ワールド</t>
+  </si>
+  <si>
+    <t>Around the World</t>
+  </si>
+  <si>
+    <t>around_the_world.jpg</t>
+  </si>
+  <si>
+    <t>hlidskjale.jpg</t>
+  </si>
+  <si>
+    <t>Hlidskjalf</t>
+  </si>
+  <si>
+    <t>フリズスキャルヴ</t>
+  </si>
+  <si>
+    <t>パラダイスロスト</t>
+  </si>
+  <si>
+    <t>Paradise Lost</t>
+  </si>
+  <si>
+    <t>paradise_lost.jpg</t>
+  </si>
+  <si>
+    <t>アルシャードガイアRPG</t>
+  </si>
+  <si>
+    <t>Alshard Gaia</t>
+  </si>
+  <si>
+    <t>alshard_gaia.jpg</t>
+  </si>
+  <si>
+    <t>アルシャードガイアRPG上級ルールブック</t>
+  </si>
+  <si>
+    <t>Alshard Gaia Advanced Rulebook</t>
+  </si>
+  <si>
+    <t>alshard_gaia_advanced.jpg</t>
+  </si>
+  <si>
+    <t>lost_requiem.jpg</t>
+  </si>
+  <si>
+    <t>ロストレクイエム</t>
+  </si>
+  <si>
+    <t>Lost Requiem</t>
+  </si>
+  <si>
+    <t>エブリデイマジック</t>
+  </si>
+  <si>
+    <t>Everyday Magic</t>
+  </si>
+  <si>
+    <t>everyday_magic.jpg</t>
+  </si>
+  <si>
+    <t>グレートディメンジョン</t>
+  </si>
+  <si>
+    <t>Great Dimension</t>
+  </si>
+  <si>
+    <t>great_dimension.jpg</t>
+  </si>
+  <si>
+    <t>ダークマジック</t>
+  </si>
+  <si>
+    <t>Dark Magic</t>
+  </si>
+  <si>
+    <t>dark_magic.jpg</t>
+  </si>
+  <si>
+    <t>blue_sphere.jpg</t>
+  </si>
+  <si>
+    <t>ブルースフィア</t>
+  </si>
+  <si>
+    <t>Blue Sphere</t>
+  </si>
+  <si>
+    <t>leaf_world.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> リーフワールド</t>
+  </si>
+  <si>
+    <t>Leaf World</t>
+  </si>
+  <si>
+    <t>Ragnarök</t>
+  </si>
+  <si>
+    <t>ラグナロク</t>
+  </si>
+  <si>
+    <t>ragnarok.jpg</t>
+  </si>
+  <si>
+    <t>オーディンの槍</t>
+  </si>
+  <si>
+    <t>Odin's Spear</t>
+  </si>
+  <si>
+    <t>odins_spear.jpg</t>
+  </si>
+  <si>
+    <t>Eternal Horizon</t>
+  </si>
+  <si>
+    <t>eternal_horizon.jpg</t>
+  </si>
+  <si>
+    <t>悠久の地平</t>
+  </si>
+  <si>
+    <t>時計仕掛けの破壊神</t>
+  </si>
+  <si>
+    <t>Clockwork Destruction God</t>
+  </si>
+  <si>
+    <t>clockwork_destruction_god.jpg</t>
+  </si>
+  <si>
+    <t>明日へのプロファイル</t>
+  </si>
+  <si>
+    <t>Profile to Tomorrow</t>
+  </si>
+  <si>
+    <t>profile_to_tomorrow.jpg</t>
+  </si>
+  <si>
+    <t>神の贈り物</t>
+  </si>
+  <si>
+    <t>God's Gift</t>
+  </si>
+  <si>
+    <t>gods_gift.jpg</t>
+  </si>
+  <si>
+    <t>神薙ぐ御剣</t>
+  </si>
+  <si>
+    <t>Kaminagu Miturugi</t>
+  </si>
+  <si>
+    <t>kaminagu_miturugi.jpg</t>
+  </si>
+  <si>
+    <t>希望へのコンタクト</t>
+  </si>
+  <si>
+    <t>Contact to Hope</t>
+  </si>
+  <si>
+    <t>contact_to_hope.jpg</t>
+  </si>
+  <si>
+    <t>君といるセカイ</t>
+  </si>
+  <si>
+    <t>The World with You</t>
+  </si>
+  <si>
+    <t>the_world_with_you.jpg</t>
+  </si>
+  <si>
+    <t>本当のRPG</t>
+  </si>
+  <si>
+    <t>Real RPG</t>
+  </si>
+  <si>
+    <t>real_rpg.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 襲来! コスモマケドニア!!</t>
+  </si>
+  <si>
+    <t>Invasion! Cosmo Macedonia!!</t>
+  </si>
+  <si>
+    <t>invasion_cosmo_macedonia.jpg</t>
+  </si>
+  <si>
+    <t>天使がくれた世界滅亡</t>
+  </si>
+  <si>
+    <t>The World Destroyed by an Angel</t>
+  </si>
+  <si>
+    <t>destroyed_by_an_angel.jpg</t>
+  </si>
+  <si>
+    <t>美少女★女神と黄金の林檎</t>
+  </si>
+  <si>
+    <t>Beautiful girl ★ Goddess and golden apple</t>
+  </si>
+  <si>
+    <t>beautiful_girl.jpg</t>
+  </si>
+  <si>
+    <t>爆誕! ゴッドウォリアーズ!!</t>
+  </si>
+  <si>
+    <t>Bomb! God Warriors!!</t>
+  </si>
+  <si>
+    <t>bomb_god_warriors.jpg</t>
+  </si>
+  <si>
+    <t>魔女が望んだ未来消失</t>
+  </si>
+  <si>
+    <t>The future disappearance that the witch wanted</t>
+  </si>
+  <si>
+    <t>future_disappearance.jpg</t>
+  </si>
+  <si>
+    <t>美少女★女神と伝説の愛天使</t>
+  </si>
+  <si>
+    <t>Beautiful girl ★ Goddess and legendary love angel</t>
+  </si>
+  <si>
+    <t>beautiful_girl_goddess.jpg</t>
+  </si>
+  <si>
+    <t>創世! 真ラグナロク!!</t>
+  </si>
+  <si>
+    <t>Genesis! True Ragnarok!!</t>
+  </si>
+  <si>
+    <t>genesis_true_ragnarok.jpg</t>
+  </si>
+  <si>
+    <t>虹の彼方から</t>
+  </si>
+  <si>
+    <t>From Beyond the Rainbow</t>
+  </si>
+  <si>
+    <t>from_beyond_the_rainbow.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +658,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28D440-B181-6A4F-B45A-3C4FAB38A157}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,22 +1205,971 @@
         <v>2005</v>
       </c>
       <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2008</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2008</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2008</v>
+      </c>
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2009</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2007</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2009</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2012</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2010</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2010</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2011</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2011</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2010</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/alshard/checklist.xlsx
+++ b/alshard/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/alshard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED88EC-07DA-D34A-BECF-C8058D3D9A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0FF45-F4F8-1242-B44A-4DBE7C77AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28D440-B181-6A4F-B45A-3C4FAB38A157}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,34 +1241,28 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2005</v>
-      </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -1276,13 +1270,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1290,13 +1284,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1304,13 +1298,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -1318,13 +1312,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -1332,13 +1326,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -1346,13 +1340,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1360,13 +1354,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1374,13 +1368,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -1388,13 +1382,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -1402,13 +1396,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -1416,13 +1410,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1430,13 +1424,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1444,13 +1438,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1458,13 +1452,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1472,30 +1466,36 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2005</v>
+      </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">

--- a/alshard/checklist.xlsx
+++ b/alshard/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/alshard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/alshard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0FF45-F4F8-1242-B44A-4DBE7C77AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334728B-7337-6A43-A74D-44F24720AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{4B98D9C7-87B6-084B-B45C-8DFF627ECD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="205">
   <si>
     <t>year</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>from_beyond_the_rainbow.jpg</t>
+  </si>
+  <si>
+    <t>bright_night_supplement.jpg</t>
+  </si>
+  <si>
+    <t>ブライト・ナイト サプリメント</t>
+  </si>
+  <si>
+    <t>Bright Knight Supplement</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28D440-B181-6A4F-B45A-3C4FAB38A157}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,19 +1171,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -1182,22 +1191,22 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,64 +1214,70 @@
         <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2011</v>
+      </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -1270,13 +1285,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1284,13 +1299,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1298,13 +1313,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -1312,13 +1327,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -1326,13 +1341,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -1340,13 +1355,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1354,13 +1369,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1368,13 +1383,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -1382,13 +1397,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -1396,13 +1411,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -1410,13 +1425,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1424,13 +1439,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1438,13 +1453,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1452,13 +1467,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1466,53 +1481,47 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>56</v>
       </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2005</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1520,56 +1529,56 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
@@ -1577,19 +1586,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1597,16 +1609,16 @@
         <v>2008</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1614,13 +1626,13 @@
         <v>2008</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -1631,16 +1643,16 @@
         <v>2008</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1648,33 +1660,33 @@
         <v>2008</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1682,53 +1694,50 @@
         <v>2009</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1736,16 +1745,16 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1756,53 +1765,56 @@
         <v>2006</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -1813,56 +1825,53 @@
         <v>2008</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
@@ -1870,19 +1879,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
@@ -1890,39 +1899,39 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -1933,16 +1942,16 @@
         <v>2007</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -1950,19 +1959,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -1970,19 +1979,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -1990,19 +1999,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2010,19 +2019,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -2033,16 +2042,16 @@
         <v>2010</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2050,19 +2059,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2073,16 +2082,16 @@
         <v>2011</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -2093,16 +2102,16 @@
         <v>2011</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2113,16 +2122,16 @@
         <v>2011</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2130,19 +2139,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2150,21 +2159,41 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>2010</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>199</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>200</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
         <v>201</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>17</v>
       </c>
     </row>
